--- a/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Townhouse'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Townhouse'.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.41873845729187109</v>
+        <v>0.41869079974131068</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0.41626760031806082</v>
+        <v>0.41630237858845559</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>0.34290746119445209</v>
+        <v>0.34290782577695961</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.31761762505090763</v>
+        <v>0.31761428839564348</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>0.26148688790763702</v>
+        <v>0.26152302087609047</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>0.24747577799300541</v>
+        <v>0.24746084050591191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>0.23486602844033341</v>
+        <v>0.23485334227243421</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>0.22189537649649921</v>
+        <v>0.22189304257351899</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="D18">
-        <v>0.218977927296376</v>
+        <v>0.21863869552088999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>0.2125609891018567</v>
+        <v>0.21251249080419049</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="D20">
-        <v>0.19834193159836139</v>
+        <v>0.19831122363241491</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>10</v>
       </c>
       <c r="D21">
-        <v>0.18430895621510129</v>
+        <v>0.18431009408433049</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>0.17901111834723771</v>
+        <v>0.1790051871325436</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>0.17048744560084361</v>
+        <v>0.17048146910974529</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>0.16197096645402359</v>
+        <v>0.1619758948930346</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>0.13091974627836531</v>
+        <v>0.13098947949803399</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>0.11346599496106401</v>
+        <v>0.11352759073917119</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>7.0844084191894946E-2</v>
+        <v>7.0906334294847301E-2</v>
       </c>
     </row>
   </sheetData>
